--- a/public/uploads/Faculty Excel Format.xlsx
+++ b/public/uploads/Faculty Excel Format.xlsx
@@ -5,44 +5,165 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolly Delos Reyes\projects\shsboard\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{685E7014-663F-4DD4-923A-52CA6CD8BA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263AC91-8D20-42D3-B32F-7C252F3A87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Faculty Information" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Sample</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Middle name</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>Faculty Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Username</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Sex</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Email</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>First name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Note: Fields with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are required to fill in, or else your account will not be created</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Last name</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,13 +177,46 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -74,14 +228,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,23 +563,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AED545-730E-4ED9-BB60-00C5B65EEB68}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F100" xr:uid="{BF4F1102-F27B-41A2-AC76-03CD7B99FF5B}">
+      <formula1>"Male, Female"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/public/uploads/Faculty Excel Format.xlsx
+++ b/public/uploads/Faculty Excel Format.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rolly Delos Reyes\projects\shsboard\public\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C263AC91-8D20-42D3-B32F-7C252F3A87AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6047A6-F35B-4DDB-B38D-86AFDA714C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Faculty Information" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Username</t>
+      <t>Sex</t>
     </r>
   </si>
   <si>
@@ -72,7 +72,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Sex</t>
+      <t>Email</t>
     </r>
   </si>
   <si>
@@ -92,10 +92,13 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Email</t>
-    </r>
-  </si>
-  <si>
+      <t>First name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Note: Fields with</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -103,6 +106,26 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> are required to fill in</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -112,13 +135,10 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>First name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Note: Fields with</t>
-    </r>
+      <t>Last name</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -126,26 +146,6 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> are required to fill in, or else your account will not be created</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
       <t>*</t>
     </r>
     <r>
@@ -155,7 +155,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Last name</t>
+      <t>Specialty</t>
     </r>
   </si>
 </sst>
@@ -566,7 +566,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
     </row>
     <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -606,10 +606,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>0</v>
@@ -618,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -635,9 +635,12 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F100" xr:uid="{BF4F1102-F27B-41A2-AC76-03CD7B99FF5B}">
       <formula1>"Male, Female"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{002D81F5-1E8B-4B82-BC76-8325825FE80F}">
+      <formula1>"General, Mathematics, English, Filipino, Science, History"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/uploads/Faculty Excel Format.xlsx
+++ b/public/uploads/Faculty Excel Format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6047A6-F35B-4DDB-B38D-86AFDA714C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD65D82-B2A7-44F1-B276-F2086BC17416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
   </bookViews>
@@ -155,7 +155,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t>Specialty</t>
+      <t>Expertise</t>
     </r>
   </si>
 </sst>
@@ -555,7 +555,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -566,7 +566,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/public/uploads/Faculty Excel Format.xlsx
+++ b/public/uploads/Faculty Excel Format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FD65D82-B2A7-44F1-B276-F2086BC17416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3DB2D1-7E0C-4CAF-8E5E-3F4B6027AD0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26997FC7-C4CB-48A1-B77E-7E73527BD05C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Middle name</t>
   </si>
@@ -156,6 +156,26 @@
         <family val="1"/>
       </rPr>
       <t>Expertise</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Status</t>
     </r>
   </si>
 </sst>
@@ -566,7 +586,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -578,7 +598,8 @@
     <col min="5" max="5" width="25.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -626,6 +647,9 @@
       <c r="G3" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -635,13 +659,16 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F100" xr:uid="{BF4F1102-F27B-41A2-AC76-03CD7B99FF5B}">
       <formula1>"Male, Female"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{002D81F5-1E8B-4B82-BC76-8325825FE80F}">
       <formula1>"General, Mathematics, English, Filipino, Science, History"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576" xr:uid="{8B592BBE-5CAB-4473-820D-4866DC91F06C}">
+      <formula1>"Regular, Master"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
